--- a/AprendizajeAutomatico/MatrizConfusion.xlsx
+++ b/AprendizajeAutomatico/MatrizConfusion.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Desc</t>
   </si>
@@ -98,14 +100,191 @@
     <t>Pres=TP/TP+FP</t>
   </si>
   <si>
-    <t xml:space="preserve">TP/TP+FN </t>
+    <t xml:space="preserve">VALORES </t>
+  </si>
+  <si>
+    <t>POSTIVOS</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>ESTIAMDOS</t>
+  </si>
+  <si>
+    <t>NEGATIVOS</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exactitud(Accuracy).- El cual es el porcentaje de predicciones que fueron correctas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Accuracy = (32+1906)/(1119)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sensividad(Recall).- La cantidad de clases positivas que fueron identificadas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precisión(Precision).- Es el porcentaje de predicciones positivas que fueron correctas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Especificidad. - La cantidad de clases negativas que fueron identificadas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F-score.- Esta en función de la precisión y la sensividad y balancea estos valores de forma armónica.</t>
+    </r>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Presición</t>
+  </si>
+  <si>
+    <t>Especifidad</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>Sensividad</t>
+  </si>
+  <si>
+    <t>verdaderos positivos</t>
+  </si>
+  <si>
+    <t>verdaderos negativos</t>
+  </si>
+  <si>
+    <t>Pres=TN/TN+FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN/TN+FP </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +300,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,26 +357,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -180,19 +369,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,6 +403,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4572000" y="190500"/>
+          <a:ext cx="1552575" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4572000" y="762000"/>
+          <a:ext cx="1038225" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4572000" y="1143000"/>
+          <a:ext cx="1152525" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4572000" y="1524000"/>
+          <a:ext cx="1238250" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,18 +893,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA201"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="30">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -506,42 +926,42 @@
       <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -620,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -701,7 +1121,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
@@ -782,7 +1202,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="30">
       <c r="A5">
         <v>2</v>
       </c>
@@ -863,7 +1283,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -944,7 +1364,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1016,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="30" customHeight="1">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1095,7 +1515,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1166,23 +1586,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1253,35 +1658,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="3">
-        <f>SUM(C2:C201)</f>
-        <v>23</v>
-      </c>
-      <c r="W10" s="3">
-        <f>SUM(M2:M201)</f>
-        <v>9</v>
-      </c>
-      <c r="X10" s="3">
-        <f>SUM(N2:N201)</f>
-        <v>22</v>
-      </c>
-      <c r="Y10" s="3">
-        <f>SUM(P2:P201)</f>
-        <v>20</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA10">
-        <f>V10/SUM(V10:Y10)</f>
-        <v>0.3108108108108108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1352,35 +1730,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V11" s="3">
-        <f>SUM(G2:G201)</f>
-        <v>9</v>
-      </c>
-      <c r="W11" s="3">
-        <f>SUM(D2:D201)</f>
-        <v>16</v>
-      </c>
-      <c r="X11" s="3">
-        <f>SUM(O2:O201)</f>
-        <v>12</v>
-      </c>
-      <c r="Y11" s="3">
-        <f>SUM(Q2:Q202)</f>
-        <v>11</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA11">
-        <f>W11/SUM(V11:Y11)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1451,28 +1802,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" s="3">
-        <f>SUM(H2:H201)</f>
-        <v>13</v>
-      </c>
-      <c r="W12" s="3">
-        <f>SUM(J2:J201)</f>
-        <v>9</v>
-      </c>
-      <c r="X12" s="3">
-        <f>SUM(E2:E201)</f>
-        <v>16</v>
-      </c>
-      <c r="Y12" s="3">
-        <f>SUM(R2:R202)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1543,28 +1874,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V13" s="4">
-        <f>SUM(I2:I201)</f>
-        <v>6</v>
-      </c>
-      <c r="W13" s="4">
-        <f>SUM(K2:K201)</f>
-        <v>10</v>
-      </c>
-      <c r="X13" s="4">
-        <f>SUM(L2:L201)</f>
-        <v>4</v>
-      </c>
-      <c r="Y13" s="3">
-        <f>SUM(F1:F201)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1635,14 +1946,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V14" t="s">
-        <v>16</v>
-      </c>
-      <c r="W14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1713,16 +2018,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V15">
-        <f>23/(23+9+13+6)</f>
-        <v>0.45098039215686275</v>
-      </c>
-      <c r="W15">
-        <f>W11/SUM(W10:W13)</f>
-        <v>0.36363636363636365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1794,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1866,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1938,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2010,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2082,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2154,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2226,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2298,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2370,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2442,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2514,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2586,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2658,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2730,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2802,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2874,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2946,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3018,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3090,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3162,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3234,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3306,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3378,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3450,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3522,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3594,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3666,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3738,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3810,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3882,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3954,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4026,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>4</v>
       </c>
@@ -4098,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>1</v>
       </c>
@@ -4170,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4242,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4314,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4386,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>1</v>
       </c>
@@ -4458,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>2</v>
       </c>
@@ -4530,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4602,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>2</v>
       </c>
@@ -4674,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4746,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4818,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4890,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>4</v>
       </c>
@@ -4962,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5034,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5106,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>4</v>
       </c>
@@ -5178,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>2</v>
       </c>
@@ -5250,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>3</v>
       </c>
@@ -5322,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>3</v>
       </c>
@@ -5394,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>1</v>
       </c>
@@ -5466,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>1</v>
       </c>
@@ -5538,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>2</v>
       </c>
@@ -5610,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>2</v>
       </c>
@@ -5682,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>1</v>
       </c>
@@ -5754,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>1</v>
       </c>
@@ -5826,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>3</v>
       </c>
@@ -5898,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>4</v>
       </c>
@@ -5970,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>3</v>
       </c>
@@ -6042,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>2</v>
       </c>
@@ -6114,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>1</v>
       </c>
@@ -6186,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>4</v>
       </c>
@@ -6258,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>2</v>
       </c>
@@ -6330,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>2</v>
       </c>
@@ -6402,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>3</v>
       </c>
@@ -6474,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>3</v>
       </c>
@@ -6546,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>1</v>
       </c>
@@ -6618,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>2</v>
       </c>
@@ -6690,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6762,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>4</v>
       </c>
@@ -6834,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>2</v>
       </c>
@@ -6906,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>3</v>
       </c>
@@ -6978,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>4</v>
       </c>
@@ -7050,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>1</v>
       </c>
@@ -7122,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>1</v>
       </c>
@@ -7194,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>2</v>
       </c>
@@ -7266,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>2</v>
       </c>
@@ -7338,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>1</v>
       </c>
@@ -7410,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>1</v>
       </c>
@@ -7482,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>1</v>
       </c>
@@ -7554,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>1</v>
       </c>
@@ -7626,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>2</v>
       </c>
@@ -7698,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>2</v>
       </c>
@@ -7770,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>3</v>
       </c>
@@ -7842,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>1</v>
       </c>
@@ -7914,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>1</v>
       </c>
@@ -7986,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>4</v>
       </c>
@@ -8058,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>1</v>
       </c>
@@ -8130,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>1</v>
       </c>
@@ -8202,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>1</v>
       </c>
@@ -8274,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>4</v>
       </c>
@@ -8346,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>2</v>
       </c>
@@ -8418,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>2</v>
       </c>
@@ -8490,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>2</v>
       </c>
@@ -8562,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>2</v>
       </c>
@@ -8634,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>1</v>
       </c>
@@ -8706,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>3</v>
       </c>
@@ -8778,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>2</v>
       </c>
@@ -8850,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>4</v>
       </c>
@@ -8922,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>1</v>
       </c>
@@ -8994,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>2</v>
       </c>
@@ -9066,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>1</v>
       </c>
@@ -9138,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>1</v>
       </c>
@@ -9210,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>2</v>
       </c>
@@ -9282,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>3</v>
       </c>
@@ -9354,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>4</v>
       </c>
@@ -9426,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>2</v>
       </c>
@@ -9498,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124">
         <v>2</v>
       </c>
@@ -9570,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125">
         <v>3</v>
       </c>
@@ -9642,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>1</v>
       </c>
@@ -9714,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127">
         <v>1</v>
       </c>
@@ -9786,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128">
         <v>2</v>
       </c>
@@ -9858,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>3</v>
       </c>
@@ -9930,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130">
         <v>1</v>
       </c>
@@ -10002,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131">
         <v>3</v>
       </c>
@@ -10074,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132">
         <v>3</v>
       </c>
@@ -10146,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133">
         <v>1</v>
       </c>
@@ -10218,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="A134">
         <v>1</v>
       </c>
@@ -10290,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="A135">
         <v>4</v>
       </c>
@@ -10362,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="A136">
         <v>2</v>
       </c>
@@ -10434,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="A137">
         <v>2</v>
       </c>
@@ -10506,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="A138">
         <v>2</v>
       </c>
@@ -10578,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139">
         <v>1</v>
       </c>
@@ -10650,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140">
         <v>1</v>
       </c>
@@ -10722,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141">
         <v>3</v>
       </c>
@@ -10794,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142">
         <v>1</v>
       </c>
@@ -10866,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143">
         <v>1</v>
       </c>
@@ -10938,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144">
         <v>4</v>
       </c>
@@ -11010,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145">
         <v>1</v>
       </c>
@@ -11082,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146">
         <v>1</v>
       </c>
@@ -11154,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147">
         <v>2</v>
       </c>
@@ -11226,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148">
         <v>1</v>
       </c>
@@ -11298,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149">
         <v>3</v>
       </c>
@@ -11370,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150">
         <v>2</v>
       </c>
@@ -11442,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151">
         <v>2</v>
       </c>
@@ -11514,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152">
         <v>1</v>
       </c>
@@ -11586,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153">
         <v>2</v>
       </c>
@@ -11658,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154">
         <v>2</v>
       </c>
@@ -11730,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18">
       <c r="A155">
         <v>3</v>
       </c>
@@ -11802,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156">
         <v>2</v>
       </c>
@@ -11874,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157">
         <v>3</v>
       </c>
@@ -11946,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158">
         <v>3</v>
       </c>
@@ -12018,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159">
         <v>3</v>
       </c>
@@ -12090,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160">
         <v>3</v>
       </c>
@@ -12162,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161">
         <v>2</v>
       </c>
@@ -12234,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="A162">
         <v>3</v>
       </c>
@@ -12306,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163">
         <v>1</v>
       </c>
@@ -12378,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164">
         <v>1</v>
       </c>
@@ -12450,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165">
         <v>1</v>
       </c>
@@ -12522,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166">
         <v>3</v>
       </c>
@@ -12594,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167">
         <v>4</v>
       </c>
@@ -12666,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168">
         <v>1</v>
       </c>
@@ -12738,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18">
       <c r="A169">
         <v>1</v>
       </c>
@@ -12810,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170">
         <v>3</v>
       </c>
@@ -12882,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171">
         <v>1</v>
       </c>
@@ -12954,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18">
       <c r="A172">
         <v>3</v>
       </c>
@@ -13026,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18">
       <c r="A173">
         <v>3</v>
       </c>
@@ -13098,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174">
         <v>1</v>
       </c>
@@ -13170,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175">
         <v>2</v>
       </c>
@@ -13242,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18">
       <c r="A176">
         <v>2</v>
       </c>
@@ -13314,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18">
       <c r="A177">
         <v>2</v>
       </c>
@@ -13386,7 +13683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18">
       <c r="A178">
         <v>1</v>
       </c>
@@ -13458,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18">
       <c r="A179">
         <v>1</v>
       </c>
@@ -13530,7 +13827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18">
       <c r="A180">
         <v>1</v>
       </c>
@@ -13602,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18">
       <c r="A181">
         <v>1</v>
       </c>
@@ -13674,7 +13971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18">
       <c r="A182">
         <v>1</v>
       </c>
@@ -13746,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18">
       <c r="A183">
         <v>1</v>
       </c>
@@ -13818,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18">
       <c r="A184">
         <v>1</v>
       </c>
@@ -13890,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18">
       <c r="A185">
         <v>2</v>
       </c>
@@ -13962,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18">
       <c r="A186">
         <v>3</v>
       </c>
@@ -14034,7 +14331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18">
       <c r="A187">
         <v>1</v>
       </c>
@@ -14106,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18">
       <c r="A188">
         <v>1</v>
       </c>
@@ -14178,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18">
       <c r="A189">
         <v>1</v>
       </c>
@@ -14250,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18">
       <c r="A190">
         <v>4</v>
       </c>
@@ -14322,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18">
       <c r="A191">
         <v>4</v>
       </c>
@@ -14394,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18">
       <c r="A192">
         <v>3</v>
       </c>
@@ -14466,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18">
       <c r="A193">
         <v>1</v>
       </c>
@@ -14538,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18">
       <c r="A194">
         <v>1</v>
       </c>
@@ -14610,7 +14907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18">
       <c r="A195">
         <v>3</v>
       </c>
@@ -14682,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18">
       <c r="A196">
         <v>3</v>
       </c>
@@ -14754,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18">
       <c r="A197">
         <v>4</v>
       </c>
@@ -14826,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18">
       <c r="A198">
         <v>1</v>
       </c>
@@ -14898,7 +15195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18">
       <c r="A199">
         <v>4</v>
       </c>
@@ -14970,7 +15267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18">
       <c r="A200">
         <v>3</v>
       </c>
@@ -15042,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18">
       <c r="A201">
         <v>3</v>
       </c>
@@ -15115,10 +15412,244 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="T9:T13"/>
+  <mergeCells count="1">
     <mergeCell ref="U8:Y8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1">
+        <f>(A1+B2)/C4</f>
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1906</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <f>A1/(A1+A2)</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <f>A1/(A1+B1)</f>
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f>SUM(A1:A2)</f>
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B1:B2)</f>
+        <v>1956</v>
+      </c>
+      <c r="C4">
+        <f>SUM(A4:B4)</f>
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <f>B2/(B2+B1)</f>
+        <v>0.97443762781186094</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <f>C2/SUM(C2:D2)</f>
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1906</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <f>D3/SUM(C3:D3)</f>
+        <v>0.99374348279457769</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5">
+        <f>C2/(C2+C3)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="D5">
+        <f>D3/(D3+D2)</f>
+        <v>0.97443762781186094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>